--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,13 +448,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,13 +448,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>("Valkyrie's Sword", ['{1}{W}', 'Artifact — Equipment', 'When Valkyrie’s Sword enters the battlefield, you may pay {4}{W}. If you do, create a 4/4 white Angel Warrior creature token with flying and vigilance, then attach Valkyrie’s Sword to it.', 'Equipped creature gets +2/+1.', 'Equip {3}'])</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>('Angel Warrior', ['Token Creature — Angel Warrior', 'Flying, vigilance', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>('Bear', ['Token Creature — Bear', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>('Bird', ['Token Creature — Bird', 'Flying', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>('Cat', ['Token Creature — Cat', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>('Demon Berserker', ['Token Creature — Demon Berserker', 'Menace (This creature can’t be blocked except by two or more creatures.)', '2/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>('Dwarf Berserker', ['Token Creature — Dwarf Berserker', '2/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>('Elf Warrior', ['Token Creature — Elf Warrior', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>('Foretell', ['Card', '(After you foretell a card, you can place the exiled card here. You may cast it on a later turn for its foretell cost.)'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>('Giant Wizard', ['Token Creature — Giant Wizard', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>('Human Warrior', ['Token Creature — Human Warrior', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>('Icy Manalith', ['Token Snow Artifact', '{T}: Add one mana of any color.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>('Kaya the Inexorable Emblem', ['Emblem', 'At the beginning of your upkeep, you may cast a legendary spell from your hand, from your graveyard, or from among cards you own in exile without paying its mana cost.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>("Koma's Coil", ['Token Creature — Serpent', '3/3'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>('Replicated Ring', ['Token Snow Artifact', '{T}: Add one mana of any color.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>('Shapeshifter', ['Token Creature — Shapeshifter', 'Changeling (This token is every creature type.)', '2/2'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>('Shard', ['Token Enchantment — Shard', '{2}, Sacrifice this enchantment: Scry 1, then draw a card.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>('Tibalt, Cosmic Impostor Emblem', ['Emblem', 'You may play cards exiled with Tibalt, Cosmic Impostor, and you may spend mana as though it were mana of any color to cast those spells.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>('Treasure', ['Token Artifact — Treasure', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>('Troll Warrior', ['Token Creature — Troll Warrior', 'Trample', '4/4'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>('Tyvar Kell Emblem', ['Emblem', 'Whenever you cast an Elf spell, it gains haste until end of turn and you draw two cards.'])</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>('Zombie Berserker', ['Token Creature — Zombie Berserker', '2/2'])</t>
         </is>
       </c>
     </row>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Kaldheim Tokens (TKHM).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
